--- a/products.xlsx
+++ b/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\indi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5D8A3-306D-4990-8D82-F9B41BE929D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197F0A4-3217-4B3A-9A29-60DAF7002ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
   <si>
     <t>itemCode</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SaW001.jpg</t>
   </si>
   <si>
-    <t>SaW002.jpg, SaW003.jpg</t>
-  </si>
-  <si>
     <t>BK001</t>
   </si>
   <si>
@@ -69,17 +66,470 @@
     <t>Books</t>
   </si>
   <si>
-    <t>Science at Work: A Hard Bound color illustrated encyclopedia (published 1990) in very good condition. Definitely a collectible.</t>
+    <t>SaW002.jpg, SaW003.jpg, SaW004.jpg, SaW005.jpg, SaW006.jpg, SaW007.jpg</t>
+  </si>
+  <si>
+    <t>BK002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Britannica Reference Encyclopedia </t>
+  </si>
+  <si>
+    <t>Science at Work: A Hard Bound color illustrated encyclopedia (published 1990) in very good condition. Definitely a collectible. [Price + Shipping]</t>
+  </si>
+  <si>
+    <t>[Hardcover] Britannica Encyclopedia:  Wonderful paper quality. 794 Pages. [Price + Shipping]</t>
+  </si>
+  <si>
+    <t>BE001.jpg</t>
+  </si>
+  <si>
+    <t>BE002.jpg, BE003.jpg, BE004.jpg, BE005.jpg, BE006.jpg</t>
+  </si>
+  <si>
+    <t>BK003</t>
+  </si>
+  <si>
+    <t>BK004</t>
+  </si>
+  <si>
+    <t>BK005</t>
+  </si>
+  <si>
+    <t>BK006</t>
+  </si>
+  <si>
+    <t>BK007</t>
+  </si>
+  <si>
+    <t>BK008</t>
+  </si>
+  <si>
+    <t>BK009</t>
+  </si>
+  <si>
+    <t>BK010</t>
+  </si>
+  <si>
+    <t>BK011</t>
+  </si>
+  <si>
+    <t>BK012</t>
+  </si>
+  <si>
+    <t>BK013</t>
+  </si>
+  <si>
+    <t>Sacred Games by Vikram Chandra [Hardcover]</t>
+  </si>
+  <si>
+    <t>Altered Carbon by Richard Morgan [Paperback]</t>
+  </si>
+  <si>
+    <t>Sons of Fortune by Jeffrey Archer [Hardcover]</t>
+  </si>
+  <si>
+    <t>The Eleventh Commandment by Jeffrey Archer [Hardcover]</t>
+  </si>
+  <si>
+    <t>Honour Among Thieves by Jeffrey Archer [Hardcover]</t>
+  </si>
+  <si>
+    <t>The Client by John Grisham [Hardcover]</t>
+  </si>
+  <si>
+    <t>The Bretheren by John Grisham [Paperback]</t>
+  </si>
+  <si>
+    <t>Coffee Can Investing [Hardcover]</t>
+  </si>
+  <si>
+    <t>Captains Courageous by Rudyard Kipling (Illustrated Classic) [Hardcover]</t>
+  </si>
+  <si>
+    <t>Readers Digest Select Edition (Da Vinci Code, ++) [Hardcover]</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird by Harper Lee [Paperback]</t>
+  </si>
+  <si>
+    <t>The Street Lawyer by John Grisham [Paperback]</t>
+  </si>
+  <si>
+    <t>The Broker by John Grisham [Paperback]</t>
+  </si>
+  <si>
+    <t>The Christmas Train by David Baldacci [Paperback]</t>
+  </si>
+  <si>
+    <t>Zero Coupon By Paul Erdman [Hardcover]</t>
+  </si>
+  <si>
+    <t>Saucer by Stephen Coonts [Paperback]</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs by Thomas Harris [Paperback]</t>
+  </si>
+  <si>
+    <t>Steve Jobs: The man who thought different 2013 by Karen Blumenthal [Bloomsbury] [Paperback]</t>
+  </si>
+  <si>
+    <t>Colin Forbes: The Green Key and The Power [Paperback]</t>
+  </si>
+  <si>
+    <t>The Ten-Day MBA: A Step-By-step Guide To Mastering The Skills Taught In America's Top Business Schools _x000D_
+by Steven A. Silbiger (1999 Revised Edition)_x000D_
+ISBN-13: 9780688137885_x000D_
+ISBN-10: 0688137881 [Paperback]</t>
+  </si>
+  <si>
+    <t>Lance: The Making of the World's Greatest Champion [Hardcover] by John Wilcockson [Paperback]</t>
+  </si>
+  <si>
+    <t>Priory Classics: Series One: Grimm's Fairy Tales (Priory Classics - Series One) [Hardcover]</t>
+  </si>
+  <si>
+    <t>Jack Welch [Hardcover]</t>
+  </si>
+  <si>
+    <t>Ram The Scion of Ishwaku by Amish [Paperback]</t>
+  </si>
+  <si>
+    <t>The Rozabal Line by Ashwin Sanghi [Paperback]</t>
+  </si>
+  <si>
+    <t>Myths and Legends of India by J.M.Mcfie [Paperback]</t>
+  </si>
+  <si>
+    <t>The Graveyard Book by Neil Gaiman [Paperback]</t>
+  </si>
+  <si>
+    <t>Thinking Fast and Slow by Daniel Kahneman [Paperback]</t>
+  </si>
+  <si>
+    <t>The Room of Many Colors by Ruskin Bond [Paperback]</t>
+  </si>
+  <si>
+    <t>Dongri to Dubai by S Hussain Zaidi [Paperback]</t>
+  </si>
+  <si>
+    <t>Mossad by Michel Bel Zohar [Paperback]</t>
+  </si>
+  <si>
+    <t>The Godfather by Mario Puzo [Paperback]</t>
+  </si>
+  <si>
+    <t>Freakonomics [Paperback]</t>
+  </si>
+  <si>
+    <t>Catalyst by Chandramouli Venkatesan [Paperback]</t>
+  </si>
+  <si>
+    <t>Get Better at Getting Better by Chandramouli Venkatesan [Hardcover]</t>
+  </si>
+  <si>
+    <t>CHILDRENS MAHABHARATA by by Shanta Rameshwar Rao [Paperback]</t>
+  </si>
+  <si>
+    <t>Hadoop Definitive Guide [Paperback]</t>
+  </si>
+  <si>
+    <t>World Famous Horror Stories [Paperback]</t>
+  </si>
+  <si>
+    <t>Woman and Men in my Life Khushwant Singh [Paperback]</t>
+  </si>
+  <si>
+    <t>Chasing Harry Winston (Devil wears prada) [Paperback]</t>
+  </si>
+  <si>
+    <t>The Toyota Way [Paperback]</t>
+  </si>
+  <si>
+    <t>C++ primer Plus Prata [Paperback]</t>
+  </si>
+  <si>
+    <t>Tell Me When [Paperback]</t>
+  </si>
+  <si>
+    <t>The magic Of Thinking BIG [Paperback]</t>
+  </si>
+  <si>
+    <t>Competing for the Future [Paperback]</t>
+  </si>
+  <si>
+    <t>The Difficulty in Being Good by Gurcharan Das [Paperback]</t>
+  </si>
+  <si>
+    <t>Dongri to Dubai [Paperback]</t>
+  </si>
+  <si>
+    <t>Beyond The last Blue Mountain RM Lala [Paperback]</t>
+  </si>
+  <si>
+    <t>India's Ancient past by RS Sharma [Paperback]</t>
+  </si>
+  <si>
+    <t>Sunny days by Sunny Gav [Paperback]</t>
+  </si>
+  <si>
+    <t>Tratchenberg Speed System of Mathematics [Paperback]</t>
+  </si>
+  <si>
+    <t>The Elephant Paradign by Gurcharan Das [Paperback]</t>
+  </si>
+  <si>
+    <t>Life After Death by Deepak Chopra [Paperback]</t>
+  </si>
+  <si>
+    <t>Indian Superfoods by Rujuta [Paperback]</t>
+  </si>
+  <si>
+    <t>3 Mistakes of My Life [Paperback]</t>
+  </si>
+  <si>
+    <t>CIA [Hardcover] book OLD 1987 [Hardcover]</t>
+  </si>
+  <si>
+    <t>AntiCancer [Paperback]</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes His Last Vow [Paperback]</t>
+  </si>
+  <si>
+    <t>Manufacturing Process Pearson 5e [Paperback]</t>
+  </si>
+  <si>
+    <t>Introduction to Operational Research 11e [Paperback]</t>
+  </si>
+  <si>
+    <t>Vedic Mathematics by Jagadguru Swami Sri... [Paperback]</t>
+  </si>
+  <si>
+    <t>Corporate Chanakya by RK Pillai [Paperback]</t>
+  </si>
+  <si>
+    <t>Revolution 2020 [Paperback]</t>
+  </si>
+  <si>
+    <t>5 Point Someone [Paperback]</t>
+  </si>
+  <si>
+    <t>The Test of My Life: From Cricket to Cancer and Back -- Yuvraj Singh [Hardcover]</t>
+  </si>
+  <si>
+    <t>TopGear Magazines 7 issues + Autocar India 1999 issue [Paperback]</t>
+  </si>
+  <si>
+    <t>BK014</t>
+  </si>
+  <si>
+    <t>BK015</t>
+  </si>
+  <si>
+    <t>BK016</t>
+  </si>
+  <si>
+    <t>BK017</t>
+  </si>
+  <si>
+    <t>BK018</t>
+  </si>
+  <si>
+    <t>BK019</t>
+  </si>
+  <si>
+    <t>BK020</t>
+  </si>
+  <si>
+    <t>BK021</t>
+  </si>
+  <si>
+    <t>BK022</t>
+  </si>
+  <si>
+    <t>BK023</t>
+  </si>
+  <si>
+    <t>BK024</t>
+  </si>
+  <si>
+    <t>BK025</t>
+  </si>
+  <si>
+    <t>BK026</t>
+  </si>
+  <si>
+    <t>BK027</t>
+  </si>
+  <si>
+    <t>BK028</t>
+  </si>
+  <si>
+    <t>BK029</t>
+  </si>
+  <si>
+    <t>BK030</t>
+  </si>
+  <si>
+    <t>BK031</t>
+  </si>
+  <si>
+    <t>BK032</t>
+  </si>
+  <si>
+    <t>BK033</t>
+  </si>
+  <si>
+    <t>BK034</t>
+  </si>
+  <si>
+    <t>BK035</t>
+  </si>
+  <si>
+    <t>BK036</t>
+  </si>
+  <si>
+    <t>BK037</t>
+  </si>
+  <si>
+    <t>BK038</t>
+  </si>
+  <si>
+    <t>BK039</t>
+  </si>
+  <si>
+    <t>BK040</t>
+  </si>
+  <si>
+    <t>BK041</t>
+  </si>
+  <si>
+    <t>BK042</t>
+  </si>
+  <si>
+    <t>BK043</t>
+  </si>
+  <si>
+    <t>BK044</t>
+  </si>
+  <si>
+    <t>BK045</t>
+  </si>
+  <si>
+    <t>BK046</t>
+  </si>
+  <si>
+    <t>BK047</t>
+  </si>
+  <si>
+    <t>BK048</t>
+  </si>
+  <si>
+    <t>BK049</t>
+  </si>
+  <si>
+    <t>BK050</t>
+  </si>
+  <si>
+    <t>BK051</t>
+  </si>
+  <si>
+    <t>BK052</t>
+  </si>
+  <si>
+    <t>BK053</t>
+  </si>
+  <si>
+    <t>BK054</t>
+  </si>
+  <si>
+    <t>BK055</t>
+  </si>
+  <si>
+    <t>BK056</t>
+  </si>
+  <si>
+    <t>BK057</t>
+  </si>
+  <si>
+    <t>BK058</t>
+  </si>
+  <si>
+    <t>BK059</t>
+  </si>
+  <si>
+    <t>BK060</t>
+  </si>
+  <si>
+    <t>BK061</t>
+  </si>
+  <si>
+    <t>BK062</t>
+  </si>
+  <si>
+    <t>BK063</t>
+  </si>
+  <si>
+    <t>BK064</t>
+  </si>
+  <si>
+    <t>BK065</t>
+  </si>
+  <si>
+    <t>BK066</t>
+  </si>
+  <si>
+    <t>BK067</t>
+  </si>
+  <si>
+    <t>BK068</t>
+  </si>
+  <si>
+    <t>BK069</t>
+  </si>
+  <si>
+    <t>[Price + Shipping]</t>
+  </si>
+  <si>
+    <t>RL001.jpg</t>
+  </si>
+  <si>
+    <t>RL002.jpg, RL003.jpg</t>
+  </si>
+  <si>
+    <t>DD001.jpg</t>
+  </si>
+  <si>
+    <t>DD002.jpg</t>
+  </si>
+  <si>
+    <t>TFs001.jpg</t>
+  </si>
+  <si>
+    <t>TFs002.jpg</t>
+  </si>
+  <si>
+    <t>Mo001.jpg</t>
+  </si>
+  <si>
+    <t>Mo002.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,16 +840,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
@@ -410,64 +861,1653 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>300</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>400</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>800</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197F0A4-3217-4B3A-9A29-60DAF7002ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B5920-2A33-4491-B0D7-6CC1F37B0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="168">
   <si>
     <t>itemCode</t>
   </si>
@@ -514,6 +514,24 @@
   </si>
   <si>
     <t>Mo002.jpg</t>
+  </si>
+  <si>
+    <t>SG001.jpg</t>
+  </si>
+  <si>
+    <t>SG002.jpg</t>
+  </si>
+  <si>
+    <t>SJ001.jpg</t>
+  </si>
+  <si>
+    <t>SJ002.jpg</t>
+  </si>
+  <si>
+    <t>KS001.jpg</t>
+  </si>
+  <si>
+    <t>KS002.jpg</t>
   </si>
 </sst>
 </file>
@@ -843,8 +861,8 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,8 +985,12 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1360,8 +1382,12 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1859,8 +1885,12 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDC688-C04A-4E09-9C5D-E0817E61C9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88679D6F-8513-45AC-805A-77E75F61B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$86</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
   <si>
     <t>itemCode</t>
   </si>
@@ -519,16 +522,6 @@
 ISBN-10 ‏ : ‎ 0670999229
 ISBN-13 ‏ : ‎ 978-0670999224
 Item Weight ‏ : ‎ 1 kg 360 g</t>
-  </si>
-  <si>
-    <t>Publisher ‏ : ‎ Lotus; 1st edition (1 January 2012); Roli Books
-Language ‏ : ‎ English
-Paperback ‏ : ‎ 408 pages
-ISBN-10 ‏ : ‎ 8174368949
-ISBN-13 ‏ : ‎ 978-8174368942
-Reading age ‏ : ‎ 12 years and up
-Item Weight ‏ : ‎ 354 g
-[Price + Shipping]</t>
   </si>
   <si>
     <t>Science at Work  [Hardcover]</t>
@@ -608,6 +601,39 @@
   </si>
   <si>
     <t>YS001.jpg</t>
+  </si>
+  <si>
+    <t>Publisher ‏ : ‎ Penguin (28 May 2012); Penguin Random House Ireland Limited; productsafety@penguin.co.uk
+Language ‏ : ‎ English
+Paperback ‏ : ‎ 512 pages
+ISBN-10 ‏ : ‎ 0811227804
+ISBN-13 ‏ : ‎ 978-0141033570
+Reading age ‏ : ‎ 10 years and up
+Item Weight ‏ : ‎ 424 g
+Dimensions ‏ : ‎ 12.8 x 3.4 x 19.6 cm
+[Price + Shipping]</t>
+  </si>
+  <si>
+    <t>The phenomenal international bestseller - over 10 million copies sold - that will change the way you make decisions
+'A lifetime's worth of wisdom' Steven D. Levitt, co-author of Freakonomics
+Publisher ‏ : ‎ Lotus; 1st edition (1 January 2012); Roli Books
+Language ‏ : ‎ English
+Paperback ‏ : ‎ 408 pages
+ISBN-10 ‏ : ‎ 8174368949
+ISBN-13 ‏ : ‎ 978-8174368942
+Reading age ‏ : ‎ 12 years and up
+Item Weight ‏ : ‎ 354 g
+[Price + Shipping]</t>
+  </si>
+  <si>
+    <t>TMW001.jpg</t>
+  </si>
+  <si>
+    <t>TMW002.jpg, TMW003.jpg</t>
+  </si>
+  <si>
+    <t>Indian paperback edition of the 2002 bounty edition. Paper quality is very good.
+[Price + Shipping]</t>
   </si>
 </sst>
 </file>
@@ -972,8 +998,8 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1026,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1058,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1549,14 +1575,16 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="F21" s="2">
+        <v>300</v>
+      </c>
       <c r="G21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>158</v>
@@ -1596,7 +1624,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1605,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2">
         <v>200</v>
@@ -1617,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1628,7 +1656,7 @@
         <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1637,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="2">
         <v>350</v>
@@ -1649,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1749,12 +1777,14 @@
       <c r="E28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
       <c r="G28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>148</v>
@@ -1789,7 +1819,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
@@ -1803,14 +1833,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="F30" s="2">
+        <v>350</v>
+      </c>
       <c r="G30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>152</v>
@@ -1845,7 +1877,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="360" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -1859,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G32" s="2" t="b">
         <v>0</v>
@@ -1893,12 +1925,14 @@
       <c r="E33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>200</v>
+      </c>
       <c r="G33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>154</v>
@@ -2105,7 +2139,9 @@
       <c r="E41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>110</v>
+      </c>
       <c r="G41" s="2" t="b">
         <v>0</v>
       </c>
@@ -2197,7 +2233,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -2205,23 +2241,29 @@
         <v>68</v>
       </c>
       <c r="C45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="F45" s="2">
+        <v>200</v>
+      </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -2627,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" s="2">
         <v>125</v>
@@ -2639,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2815,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F68" s="2">
         <v>250</v>
@@ -2827,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J68" s="2"/>
     </row>
@@ -3062,6 +3104,7 @@
       <c r="J86" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C86" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:J87">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88679D6F-8513-45AC-805A-77E75F61B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6189F-D238-4BFD-A513-D4D3CCAD8C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
   <si>
     <t>itemCode</t>
   </si>
@@ -138,9 +138,6 @@
     <t>The Bretheren by John Grisham [Paperback]</t>
   </si>
   <si>
-    <t>Coffee Can Investing [Hardcover]</t>
-  </si>
-  <si>
     <t>Captains Courageous by Rudyard Kipling (Illustrated Classic) [Hardcover]</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Priory Classics: Series One: Grimm's Fairy Tales (Priory Classics - Series One) [Hardcover]</t>
   </si>
   <si>
-    <t>Jack Welch [Hardcover]</t>
-  </si>
-  <si>
     <t>Ram The Scion of Ishwaku by Amish [Paperback]</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Mossad by Michel Bel Zohar [Paperback]</t>
   </si>
   <si>
-    <t>The Godfather by Mario Puzo [Paperback]</t>
-  </si>
-  <si>
     <t>Freakonomics [Paperback]</t>
   </si>
   <si>
@@ -246,19 +237,10 @@
     <t>The Difficulty in Being Good by Gurcharan Das [Paperback]</t>
   </si>
   <si>
-    <t>Dongri to Dubai [Paperback]</t>
-  </si>
-  <si>
     <t>Beyond The last Blue Mountain RM Lala [Paperback]</t>
   </si>
   <si>
     <t>India's Ancient past by RS Sharma [Paperback]</t>
-  </si>
-  <si>
-    <t>Sunny days by Sunny Gav [Paperback]</t>
-  </si>
-  <si>
-    <t>Tratchenberg Speed System of Mathematics [Paperback]</t>
   </si>
   <si>
     <t>The Elephant Paradign by Gurcharan Das [Paperback]</t>
@@ -582,9 +564,6 @@
     <t>SH001.jpg</t>
   </si>
   <si>
-    <t>SH002.jpg</t>
-  </si>
-  <si>
     <t>Penguin Edition.
 [Price + Shipping]</t>
   </si>
@@ -614,8 +593,123 @@
 [Price + Shipping]</t>
   </si>
   <si>
+    <t>TMW001.jpg</t>
+  </si>
+  <si>
+    <t>TMW002.jpg, TMW003.jpg</t>
+  </si>
+  <si>
+    <t>Indian paperback edition of the 2002 bounty edition. Paper quality is very good.
+[Price + Shipping]</t>
+  </si>
+  <si>
+    <t>Coffee Can Investing by Saurabh Mukherjee [Hardcover]</t>
+  </si>
+  <si>
+    <t>Practical investment guide in hardcover, good condition. Explains simple long-term wealth creation strategies for Indian investors. Content pages clean and unmarked. Excellent for DIY investors. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Timeless American classic in paperback, good readable condition. Essential reading with powerful themes of justice and morality. Pages complete with minor yellowing. A must-have literary masterpiece. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Collectible hardcover edition of Grimm's fairy tales. Classic children's literature in vintage edition; printed in USSR. Cover shows age wear, binding solid, pages intact. Wonderful addition to any classic literature collection. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>First book of Ramchandra series in paperback. Fresh retelling of Ram's story from bestselling author Amish. Cover shows reading wear, pages clean and complete. Must-read for Indian mythology fans. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Award-winning fantasy novel in paperback, good condition. Unique story of boy raised by ghosts in graveyard. Minor cover wear, pages clean and readable. Perfect for fans of imaginative fiction. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Collection of Ruskin Bond stories in paperback. Charming tales from beloved Indian author. Cover shows light wear, pages intact and legible. Delightful read for all ages. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Classic crime saga in paperback, readable condition. Epic story of Corleone family and organized crime. Perfect Cover, pages mild yellowed but complete. Iconic must-read for literature fans. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>The Godfather by Mario Puzo [Paperback] [Arrow Books American edition]</t>
+  </si>
+  <si>
+    <t>GB001.jpg</t>
+  </si>
+  <si>
+    <t>GB002.jpg, GB003.jpg, GB004.jpg, GB005.jpg, GB006.jpg, GB007.jpg, GB008.jpg</t>
+  </si>
+  <si>
+    <t>GFT001.jpg</t>
+  </si>
+  <si>
+    <t>GFT002.jpg, GFT003.jpg, GFT004.jpg, GFT005.jpg, GFT006.jpg</t>
+  </si>
+  <si>
+    <t>SH002.jpg, SH003.jpg, SH004.jpg</t>
+  </si>
+  <si>
+    <t>CCI.jpg</t>
+  </si>
+  <si>
+    <t>CC001.jpg</t>
+  </si>
+  <si>
+    <t>CC002.jpg</t>
+  </si>
+  <si>
+    <t>Vintage illustrated hardcover edition in good condition. Classic maritime adventure tale with beautiful illustrations. Shows age-appropriate wear, binding solid, illustrations intact. Collectible edition for literature enthusiasts. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Reader's Digest condensed book collection in hardcover. Includes Da Vinci Code and other bestsellers. Cover shows shelf wear, pages clean and readable. Great value for multiple stories in one volume. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>RD001.jpg</t>
+  </si>
+  <si>
+    <t>RD002.jpg</t>
+  </si>
+  <si>
+    <t>TKaM001.jpg</t>
+  </si>
+  <si>
+    <t>TKaM002.jpg</t>
+  </si>
+  <si>
+    <t>AMISH001.jpg</t>
+  </si>
+  <si>
+    <t>AMISH002.jpg</t>
+  </si>
+  <si>
+    <t>BOND001.jpg</t>
+  </si>
+  <si>
+    <t>PUZO001.jpg</t>
+  </si>
+  <si>
+    <t>Bestselling economics book in paperback. Fascinating exploration of hidden side of everyday decisions. Cover shows wear, pages clean and unmarked. Eye-opening read for curious minds. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>FREAK001.jpg</t>
+  </si>
+  <si>
+    <t>CAT001.jpg</t>
+  </si>
+  <si>
+    <t>CAT002.jpg</t>
+  </si>
+  <si>
+    <t>Self-help guide in paperback, good condition. Practical advice for career acceleration and personal growth. No cover wear, pages clean without highlighting. Useful for professionals and students. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>For personal development in very good condition. Framework for continuous self-improvement. Minimal wear, pages pristine and unmarked. Excellent resource for lifelong learners. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Collection of classic horror tales in paperback. Spine-chilling stories from various authors. Cover worn, pages yellowed but complete and readable. Perfect for horror fiction enthusiasts. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Contemporary fiction in paperback by Lauren Weisberger. Fun story about friendship and life choices in NYC. Cover shows minimum reading wear, pages intact and legible. Entertaining light read. Price includes shipping.</t>
+  </si>
+  <si>
     <t>The phenomenal international bestseller - over 10 million copies sold - that will change the way you make decisions
-'A lifetime's worth of wisdom' Steven D. Levitt, co-author of Freakonomics
+True crime paperback about Mumbai underworld. Gripping account of gangster Dawood Ibrahim's rise. Cover shows some wear, pages complete and legible. Fascinating read about organized crime in India. Price includes shipping.
 Publisher ‏ : ‎ Lotus; 1st edition (1 January 2012); Roli Books
 Language ‏ : ‎ English
 Paperback ‏ : ‎ 408 pages
@@ -626,14 +720,98 @@
 [Price + Shipping]</t>
   </si>
   <si>
-    <t>TMW001.jpg</t>
-  </si>
-  <si>
-    <t>TMW002.jpg, TMW003.jpg</t>
-  </si>
-  <si>
-    <t>Indian paperback edition of the 2002 bounty edition. Paper quality is very good.
-[Price + Shipping]</t>
+    <t>Sunil Gavaskar's cricket autobiography in paperback. Personal account from legendary Indian cricketer. Cover shows reading wear, pages intact and legible. Must-read for cricket fans. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>Sunny Days by Sunil Gavaskar [Paperback]</t>
+  </si>
+  <si>
+    <t>Tratchenberg Speed System of Mathematics [Paperback] by by Jakow Trachtenberg (Author), Ann Cutler (Translator), Rudolph McShane (Translator)</t>
+  </si>
+  <si>
+    <t>Publisher ‏ : ‎ Souvenir Press; Main edition
+Language ‏ : ‎ English
+Paperback ‏ : ‎ 272 pages
+ISBN-10 ‏ : ‎ 0285629166
+Item Weight ‏ : ‎ 186 g
+Dimensions ‏ : ‎ 19.8 x 2 x 12.8 cm
+Mathematics technique book in paperback. Unique system for fast mental calculations. Cover worn, pages complete with possible marking. Useful for competitive exam preparation. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>TRAT.jpg</t>
+  </si>
+  <si>
+    <t>RSSHARMA001.jpg</t>
+  </si>
+  <si>
+    <t>RSSHARMA002.jpg</t>
+  </si>
+  <si>
+    <t>Jack: Straight from the Gut [Hardcover]</t>
+  </si>
+  <si>
+    <t>Biography hardcover in good condition. Insightful look at legendary GE CEO's leadership philosophy. Cover shows little wear, pages clean and unmarked. Valuable for business leaders and management students. Price includes shipping.</t>
+  </si>
+  <si>
+    <t>JACK001.jpg</t>
+  </si>
+  <si>
+    <t>JACK002.jpg</t>
+  </si>
+  <si>
+    <t>The Lost Symbol by Dan Brown [HARDCOVER]</t>
+  </si>
+  <si>
+    <t>LOST001.jpg</t>
+  </si>
+  <si>
+    <t>ASIN ‏ : ‎ 059305427X
+Publisher ‏ : ‎ Bantam Press 
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 528 pages
+ISBN-10 ‏ : ‎ 7780040178
+ISBN-13 ‏ : ‎ 978-7780040174
+Item Weight ‏ : ‎ 830 g</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock Presents: 13 More Stories They Wouldn't Let Me Do on TV by Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Language ‏ : ‎ English
+ISBN-10 ‏ : ‎ 0440136407
+ISBN-13 ‏ : ‎ 978-0440136408
+Item Weight ‏ : ‎ 136 g
+Country of Origin ‏ : ‎ USA</t>
+  </si>
+  <si>
+    <t>HITCH001.jpg</t>
+  </si>
+  <si>
+    <t>HITCH002.jpg, HITCH003.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Inheritance of Loss by Kiran Desai [Paperback] </t>
+  </si>
+  <si>
+    <t>Winner of Man Booker prize 20026.
+Publisher ‏ : ‎ Penguin
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 336 pages
+ISBN-10 ‏ : ‎ 0349403716
+ISBN-13 ‏ : ‎ 978-0143423904
+Item Weight ‏ : ‎ 240 g
+Dimensions ‏ : ‎ 20 x 14 x 4 cm
+Country of Origin ‏ : ‎ India
+Price includes shipping.</t>
+  </si>
+  <si>
+    <t>DESAI001.jpg</t>
+  </si>
+  <si>
+    <t>DESAI002.jpg</t>
+  </si>
+  <si>
+    <t>BK069</t>
   </si>
 </sst>
 </file>
@@ -995,21 +1173,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="21.21875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
@@ -1023,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1052,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1084,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1125,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="2">
         <v>800</v>
@@ -1137,98 +1316,112 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="F5" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="F6" s="2">
+        <v>950</v>
+      </c>
       <c r="G6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
       <c r="G7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1236,10 +1429,10 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>500</v>
+      </c>
       <c r="G8" s="2" t="b">
         <v>0</v>
       </c>
@@ -1254,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1262,9 +1455,7 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="b">
         <v>0</v>
@@ -1280,7 +1471,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1288,9 +1479,7 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="b">
         <v>0</v>
@@ -1306,7 +1495,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1314,9 +1503,7 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="b">
         <v>0</v>
@@ -1327,12 +1514,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1340,9 +1527,7 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="b">
         <v>0</v>
@@ -1353,12 +1538,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1366,9 +1551,7 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="b">
         <v>0</v>
@@ -1379,116 +1562,138 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="F14" s="2">
+        <v>250</v>
+      </c>
       <c r="G14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F15" s="2">
+        <v>130</v>
+      </c>
       <c r="G15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="F16" s="2">
+        <v>700</v>
+      </c>
       <c r="G16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="F17" s="2">
+        <v>140</v>
+      </c>
       <c r="G17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1497,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="b">
@@ -1511,10 +1716,10 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1523,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="b">
@@ -1535,12 +1740,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1549,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="b">
@@ -1561,44 +1766,38 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="2">
-        <v>300</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1607,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="b">
@@ -1619,44 +1818,38 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="2">
-        <v>200</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1665,10 +1858,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F24" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>1</v>
@@ -1677,18 +1870,18 @@
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1697,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="b">
@@ -1709,458 +1902,508 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="2">
+        <v>350</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="2">
+        <v>250</v>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="2">
+        <v>700</v>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="2">
+        <v>150</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="2">
+        <v>200</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="2">
+        <v>160</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="2">
+        <v>350</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="2">
-        <v>200</v>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>25</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="2">
+        <v>160</v>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="2">
-        <v>350</v>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="360" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="2">
         <v>250</v>
       </c>
-      <c r="G32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="2">
-        <v>200</v>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="2"/>
       <c r="G35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F36" s="2">
+        <v>200</v>
+      </c>
       <c r="G36" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="F37" s="2">
+        <v>300</v>
+      </c>
       <c r="G37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="F38" s="2">
+        <v>180</v>
+      </c>
       <c r="G38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="F39" s="2">
+        <v>180</v>
+      </c>
       <c r="G39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="F40" s="2">
+        <v>180</v>
+      </c>
       <c r="G40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="2">
-        <v>110</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2169,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="b">
@@ -2181,12 +2424,12 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2195,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="b">
@@ -2209,68 +2452,70 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F44" s="2">
+        <v>110</v>
+      </c>
       <c r="G44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="F45" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2279,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="b">
@@ -2293,10 +2538,10 @@
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2305,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="b">
@@ -2317,38 +2562,44 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="F48" s="2">
+        <v>200</v>
+      </c>
       <c r="G48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2357,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="b">
@@ -2371,10 +2622,10 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2383,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="b">
@@ -2395,12 +2646,12 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2409,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="b">
@@ -2423,10 +2674,10 @@
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2435,7 +2686,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="b">
@@ -2449,36 +2700,42 @@
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F53" s="2">
+        <v>250</v>
+      </c>
       <c r="G53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2487,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="b">
@@ -2499,38 +2756,42 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="F55" s="2">
+        <v>250</v>
+      </c>
       <c r="G55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2539,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="b">
@@ -2553,10 +2814,10 @@
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2565,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="b">
@@ -2579,10 +2840,10 @@
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2591,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="b">
@@ -2605,10 +2866,10 @@
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2617,7 +2878,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="b">
@@ -2629,12 +2890,12 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2643,7 +2904,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="b">
@@ -2655,70 +2916,70 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="2">
+        <v>141</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="2">
         <v>125</v>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F62" s="2"/>
       <c r="G62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2727,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="b">
@@ -2739,21 +3000,21 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="b">
@@ -2765,12 +3026,12 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -2779,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="b">
@@ -2793,10 +3054,10 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -2805,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="b">
@@ -2817,12 +3078,12 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -2831,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="b">
@@ -2843,73 +3104,87 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F68" s="2">
+        <v>141</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="2">
         <v>250</v>
       </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
         <v>10</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+    <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
@@ -3103,10 +3378,22 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C86" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J87">
+  <conditionalFormatting sqref="A2:J88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=1</formula>
     </cfRule>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6189F-D238-4BFD-A513-D4D3CCAD8C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E7E0F-F185-49A2-8B7F-F777CF6CDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Silence of the Lambs by Thomas Harris [Paperback]</t>
   </si>
   <si>
-    <t>Steve Jobs: The man who thought different 2013 by Karen Blumenthal [Bloomsbury] [Paperback]</t>
-  </si>
-  <si>
     <t>Colin Forbes: The Green Key and The Power [Paperback]</t>
   </si>
   <si>
@@ -812,6 +809,9 @@
   </si>
   <si>
     <t>BK069</t>
+  </si>
+  <si>
+    <t>Steve Jobs: The man who thought different [2013] by Karen Blumenthal [Bloomsbury] [Paperback]</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1243,13 +1243,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1263,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -1304,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2">
         <v>800</v>
@@ -1316,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2">
         <v>600</v>
@@ -1348,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1357,16 +1357,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F6" s="2">
         <v>950</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1389,16 +1389,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
@@ -1410,10 +1410,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1567,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -1606,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="2">
         <v>130</v>
@@ -1618,15 +1618,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
@@ -1638,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" s="2">
         <v>700</v>
@@ -1650,15 +1650,15 @@
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -1670,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="2">
         <v>140</v>
@@ -1682,15 +1682,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="b">
@@ -1716,7 +1716,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -1728,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="b">
@@ -1742,7 +1742,7 @@
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
@@ -1754,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="b">
@@ -1768,7 +1768,7 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="b">
@@ -1794,7 +1794,7 @@
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
@@ -1806,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="b">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>44</v>
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="b">
@@ -1846,10 +1846,10 @@
     </row>
     <row r="24" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2">
         <v>300</v>
@@ -1870,18 +1870,18 @@
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="b">
@@ -1904,19 +1904,19 @@
     </row>
     <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F26" s="2">
         <v>200</v>
@@ -1928,27 +1928,27 @@
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F27" s="2">
         <v>350</v>
@@ -1960,18 +1960,18 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1980,7 +1980,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2">
         <v>250</v>
@@ -1992,27 +1992,27 @@
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F29" s="2">
         <v>700</v>
@@ -2024,18 +2024,18 @@
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2">
         <v>150</v>
@@ -2056,18 +2056,18 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2">
         <v>200</v>
@@ -2088,18 +2088,18 @@
         <v>25</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2108,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2">
         <v>160</v>
@@ -2120,18 +2120,18 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2">
         <v>350</v>
@@ -2152,18 +2152,18 @@
         <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F34" s="2">
         <v>160</v>
@@ -2184,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="2">
         <v>250</v>
@@ -2214,18 +2214,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="2">
         <v>200</v>
@@ -2246,18 +2246,18 @@
         <v>10</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2">
         <v>300</v>
@@ -2278,16 +2278,16 @@
         <v>20</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F38" s="2">
         <v>180</v>
@@ -2308,16 +2308,16 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="2">
         <v>180</v>
@@ -2338,16 +2338,16 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="2">
         <v>180</v>
@@ -2368,16 +2368,16 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="b">
@@ -2400,10 +2400,10 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="b">
@@ -2426,10 +2426,10 @@
     </row>
     <row r="43" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="b">
@@ -2452,10 +2452,10 @@
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2">
         <v>110</v>
@@ -2476,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="2">
         <v>160</v>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="b">
@@ -2538,10 +2538,10 @@
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="b">
@@ -2564,10 +2564,10 @@
     </row>
     <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F48" s="2">
         <v>200</v>
@@ -2588,18 +2588,18 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="b">
@@ -2622,10 +2622,10 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="b">
@@ -2648,10 +2648,10 @@
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="b">
@@ -2674,10 +2674,10 @@
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="b">
@@ -2700,10 +2700,10 @@
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="2">
         <v>250</v>
@@ -2724,18 +2724,18 @@
         <v>10</v>
       </c>
       <c r="I53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="b">
@@ -2758,19 +2758,19 @@
     </row>
     <row r="55" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F55" s="2">
         <v>250</v>
@@ -2782,16 +2782,16 @@
         <v>10</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="b">
@@ -2814,10 +2814,10 @@
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="b">
@@ -2840,10 +2840,10 @@
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="b">
@@ -2866,10 +2866,10 @@
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="b">
@@ -2892,10 +2892,10 @@
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="b">
@@ -2918,10 +2918,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="b">
@@ -2944,10 +2944,10 @@
     </row>
     <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -2956,30 +2956,30 @@
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="b">
@@ -3002,10 +3002,10 @@
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="b">
@@ -3028,10 +3028,10 @@
     </row>
     <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="b">
@@ -3054,10 +3054,10 @@
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="b">
@@ -3080,10 +3080,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="b">
@@ -3106,10 +3106,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="b">
@@ -3132,10 +3132,10 @@
     </row>
     <row r="69" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" s="2">
         <v>250</v>
@@ -3156,16 +3156,16 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="b">

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E7E0F-F185-49A2-8B7F-F777CF6CDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9496D-C2C3-40A4-9F31-DEEB708950A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="268">
   <si>
     <t>itemCode</t>
   </si>
@@ -216,18 +216,12 @@
     <t>Chasing Harry Winston (Devil wears prada) [Paperback]</t>
   </si>
   <si>
-    <t>The Toyota Way [Paperback]</t>
-  </si>
-  <si>
     <t>C++ primer Plus Prata [Paperback]</t>
   </si>
   <si>
     <t>Tell Me When [Paperback]</t>
   </si>
   <si>
-    <t>The magic Of Thinking BIG [Paperback]</t>
-  </si>
-  <si>
     <t>Competing for the Future [Paperback]</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Indian Superfoods by Rujuta [Paperback]</t>
   </si>
   <si>
-    <t>3 Mistakes of My Life [Paperback]</t>
-  </si>
-  <si>
     <t>CIA [Hardcover] book OLD 1987 [Hardcover]</t>
   </si>
   <si>
@@ -264,9 +255,6 @@
     <t>Manufacturing Process Pearson 5e [Paperback]</t>
   </si>
   <si>
-    <t>Introduction to Operational Research 11e [Paperback]</t>
-  </si>
-  <si>
     <t>Vedic Mathematics by Jagadguru Swami Sri... [Paperback]</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
     <t>Revolution 2020 [Paperback]</t>
   </si>
   <si>
-    <t>5 Point Someone [Paperback]</t>
-  </si>
-  <si>
     <t>The Test of My Life: From Cricket to Cancer and Back -- Yuvraj Singh [Hardcover]</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>BK057</t>
   </si>
   <si>
-    <t>BK058</t>
-  </si>
-  <si>
     <t>BK059</t>
   </si>
   <si>
@@ -442,9 +424,6 @@
   </si>
   <si>
     <t>BK066</t>
-  </si>
-  <si>
-    <t>BK067</t>
   </si>
   <si>
     <t>BK068</t>
@@ -697,9 +676,6 @@
   </si>
   <si>
     <t>For personal development in very good condition. Framework for continuous self-improvement. Minimal wear, pages pristine and unmarked. Excellent resource for lifelong learners. Price includes shipping.</t>
-  </si>
-  <si>
-    <t>Collection of classic horror tales in paperback. Spine-chilling stories from various authors. Cover worn, pages yellowed but complete and readable. Perfect for horror fiction enthusiasts. Price includes shipping.</t>
   </si>
   <si>
     <t>Contemporary fiction in paperback by Lauren Weisberger. Fun story about friendship and life choices in NYC. Cover shows minimum reading wear, pages intact and legible. Entertaining light read. Price includes shipping.</t>
@@ -774,13 +750,6 @@
     <t>Alfred Hitchcock Presents: 13 More Stories They Wouldn't Let Me Do on TV by Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Language ‏ : ‎ English
-ISBN-10 ‏ : ‎ 0440136407
-ISBN-13 ‏ : ‎ 978-0440136408
-Item Weight ‏ : ‎ 136 g
-Country of Origin ‏ : ‎ USA</t>
-  </si>
-  <si>
     <t>HITCH001.jpg</t>
   </si>
   <si>
@@ -812,6 +781,171 @@
   </si>
   <si>
     <t>Steve Jobs: The man who thought different [2013] by Karen Blumenthal [Bloomsbury] [Paperback]</t>
+  </si>
+  <si>
+    <t>Five Point Someone by Chetan Bhagat [Paperback]</t>
+  </si>
+  <si>
+    <t>BHA004.jpg</t>
+  </si>
+  <si>
+    <t>DAS004.jpg</t>
+  </si>
+  <si>
+    <t>BHA005.jpg</t>
+  </si>
+  <si>
+    <t>BHA001.jpg</t>
+  </si>
+  <si>
+    <t>BHA002.jpg, BHA003.jpg</t>
+  </si>
+  <si>
+    <t>DAS001.jpg</t>
+  </si>
+  <si>
+    <t>DAS002.jpg, DAS003.jpg</t>
+  </si>
+  <si>
+    <t>Language ‏ : ‎ English
+ISBN-10 ‏ : ‎ 0440136407
+ISBN-13 ‏ : ‎ 978-0440136408
+Item Weight ‏ : ‎ 136 g
+Printed in ‎ USA
+Fifth Dell printing - March, 1961</t>
+  </si>
+  <si>
+    <t>HORR001.jpg</t>
+  </si>
+  <si>
+    <t>HORR002.jpg, HORR003.jpg</t>
+  </si>
+  <si>
+    <t>Collection of classic horror tales in paperback. Spine-chilling stories from various authors. Cover, pages yellowed but complete and readable. Perfect for horror fiction enthusiasts. [Shipping costs extra].</t>
+  </si>
+  <si>
+    <t>DAS005.jpg, DAS007.jpg, DAS008.jpg, DAS009.jpg</t>
+  </si>
+  <si>
+    <t>Steve Jobs by Walter Isaacson [Paperback]</t>
+  </si>
+  <si>
+    <t>JOB001.jpg</t>
+  </si>
+  <si>
+    <t>JOB002.jpg, JOB003.jpg, JOB004.jpg, JOB005.jpg, JOB006.jpg, JOB007.jpg</t>
+  </si>
+  <si>
+    <t>KAGAN001.jpg</t>
+  </si>
+  <si>
+    <t>KAGAN002.jpg, KAGAN003.jpg, KAGAN004.jpg, KAGAN005.jpg, KAGAN006.jpg, KAGAN007.jpg, KAGAN008.jpg, KAGAN009.jpg</t>
+  </si>
+  <si>
+    <t>Computers, Computer Systems and Networks by Boris Moiseevich Kagan (B. Kagan) [Hardcover] [Mir Publishers, Moscow]</t>
+  </si>
+  <si>
+    <t>Introduction to Operational Research 11e by Hillier and Lieberman [Paperback]</t>
+  </si>
+  <si>
+    <t>OR001.jpg</t>
+  </si>
+  <si>
+    <t>OR002.jpg, OR003.jpg, OR004.jpg, OR005.jpg, OR006.jpg, OR007.jpg, OR008.jpg, OR009.jpg, OR010.jpg, OR011.jpg</t>
+  </si>
+  <si>
+    <t>The Magic Of Thinking BIG by David J. Schwartz [Paperback]</t>
+  </si>
+  <si>
+    <t>Badi Soch Ka Bada Jadoo (Hindi Edition of The Magic Of Thinking Big) by David J. Schwartz [Hindi][Paperback]</t>
+  </si>
+  <si>
+    <t>SCH001.jpg</t>
+  </si>
+  <si>
+    <t>SCH002.jpg, SCH003.jpg</t>
+  </si>
+  <si>
+    <t>SCH004.jpg</t>
+  </si>
+  <si>
+    <t>SCH005.jpg, SCH006.jpg</t>
+  </si>
+  <si>
+    <t>The Toyota Way by Jeffrey K. Liker [Paperback]</t>
+  </si>
+  <si>
+    <t>TOY001.jpg</t>
+  </si>
+  <si>
+    <t>TOY002.jpg, TOY003.jpg, TOY004.jpg, TOY005.jpg, TOY006.jpg, TOY007.jpg</t>
+  </si>
+  <si>
+    <t>Vintage Soviet-era computer science textbook in hardcover from prestigious Mir Publishers, Moscow. Rare collectible offering unique historical perspective on computer systems and networking from behind the Iron Curtain. Hardcover shows age-appropriate wear with faded spine, pages yellowed but complete with diagrams intact. Fascinating for computer science historians, collectors of vintage technical books, and those interested in Soviet scientific literature. Text remains relevant for foundational concepts.
+Publisher ‏ : ‎ Mir Publisher (1 January 1988)
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 600 pages
+ISBN-10 ‏ : ‎ 5030000313
+ISBN-13 ‏ : ‎ 978-5030000312
+Dimensions ‏ : ‎ 13 x 22 x 3 cm
+Condition: Good</t>
+  </si>
+  <si>
+    <t>Chetan Bhagat's groundbreaking debut novel in paperback. Hilarious and heartfelt story of three IIT Delhi students struggling with academics, friendship, and love. Cover shows reading wear with creases, spine intact, pages yellowed but complete and legible. This modern Indian classic launched a new wave of campus fiction and inspired the Bollywood hit '3 Idiots'. Perfect for young adults and anyone who enjoys relatable contemporary fiction. [Shipping not included]</t>
+  </si>
+  <si>
+    <t>Compelling Chetan Bhagat novel set in Varanasi. Engaging love triangle woven with themes of corruption, ambition, and moral choices in modern India's education and media sectors. Cover worn from multiple readings, pages have age-related yellowing but remain intact without tears. Great addition for Bhagat fans and contemporary Indian fiction collectors. [Shipping not Included in price]</t>
+  </si>
+  <si>
+    <t>Insightful collection of essays on India's economic transformation in paperback. Gurcharan Das explores India's rise as a global power, business culture, and societal changes with wit and wisdom. Cover shows shelf wear and minor scuffing, pages clean without highlighting. Essential reading for understanding post-liberalization India's business landscape and cultural evolution. Perfect for students, entrepreneurs, and India enthusiasts. [Shipping Included]</t>
+  </si>
+  <si>
+    <t>Philosophical masterpiece examining dharma through the Mahabharata in paperback. Das brilliantly connects ancient Sanskrit epic with modern moral dilemmas, exploring questions of duty, justice, and righteousness. Cover shows reading wear, pages clean and unmarked with yellowing. Thought-provoking and deeply engaging for anyone interested in Indian philosophy, ethics, or epic literature. A rare blend of ancient wisdom and contemporary relevance. [Shipping Included]</t>
+  </si>
+  <si>
+    <t>Ultimate and definitive biography of Apple co-founder in paperback edition. Isaacson's authorized biography offers unprecedented access to Jobs' life, personality, innovation philosophy, and the creation of revolutionary products. Cover shows very little reading wear with edge scuffing, binding tight, pages intact. Fascinating read revealing both genius and flaws of tech icon. Must-have for entrepreneurs, tech enthusiasts, and biography lovers. [Price shipping Included]</t>
+  </si>
+  <si>
+    <t>Publisher ‏ : ‎ McGraw Hill; 11th edition (27 August 2021)
+Language ‏ : ‎ English
+Paperback ‏ : ‎ 960 pages
+ISBN-10 ‏ : ‎ 9354601200
+ISBN-13 ‏ : ‎ 978-9354601200
+Item Weight ‏ : ‎ 1 kg 250 g
+Dimensions ‏ : ‎ 23.8 x 18.3 x 3.7 cm
+Standard operations research textbook, 11th edition in paperback. Comprehensive coverage of linear programming, network models, decision analysis, and optimization techniques used across industries.  Valuable resource for engineering, management, and MBA students studying OR/quantitative methods. Tables and examples intact.
+[Price + Shipping]</t>
+  </si>
+  <si>
+    <t>Publisher ‏ : ‎ Simon &amp; Schuster
+Language ‏ : ‎ English
+Dimensions ‏ : ‎ 13 x 2.4 x 19.9 cm
+Country of Origin ‏ : ‎ United Kingdom
+Timeless motivational classic in paperback. Schwartz's powerful guide to achieving success through positive mindset, goal-setting, and confident action has inspired millions since 1959.  Practical wisdom that remains relevant across generations. Life-changing read for anyone seeking personal growth, career advancement, or entrepreneurial success. [Price is Shipping Included]</t>
+  </si>
+  <si>
+    <t>Hindi translation of the bestselling self-help classic in paperback. Complete Hindi version of 'The Magic of Thinking Big' making Schwartz's transformative principles accessible to Hindi readers. Perfect for Hindi-speaking readers seeking motivation and success strategies in their native language. Practical advice for personal and professional growth.
+Publisher ‏ : ‎ Manjul Publishing House; First Edition (1 September 2002); Manjul Publishing House Pvt. Ltd., 2nd Floor, Usha Preet Complex, 42 Malviya Nagar, Bhopal - 462003 - India
+Language ‏ : ‎ Hindi
+Paperback ‏ : ‎ 332 pages
+ISBN-10 ‏ : ‎ 9788186775264
+ISBN-13 ‏ : ‎ 978-8186775264
+Reading age ‏ : ‎ 18 years and up
+Item Weight ‏ : ‎ 250 g
+Dimensions ‏ : ‎ 21.59 x 13.97 x 2.54 cm
+Country of Origin ‏ : ‎ India
+ [Price is Shipping Included]</t>
+  </si>
+  <si>
+    <t>Essential management text on lean manufacturing in paperback. Liker's comprehensive analysis of Toyota Production System reveals 14 principles behind world's most efficient manufacturer. Cover shows very little shelf wear, pages clean with no highlighting. Invaluable for operations managers, quality professionals, Six Sigma practitioners, and manufacturing students. Real-world case studies and actionable insights for implementing lean principles. 
+Publisher ‏ : ‎ McGraw Hill Education
+Language ‏ : ‎ English
+Paperback ‏ : ‎ 330 pages
+ISBN-10 ‏ : ‎ 9780070587472
+ISBN-13 ‏ : ‎ 978-0070587472
+Dimensions ‏ : ‎ 20 x 14 x 4 cm
+Country of Origin ‏ : ‎ India
+[Price includes Shipping]</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1018,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,11 +1309,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1322,7 @@
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -1202,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1231,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1263,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1304,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2">
         <v>800</v>
@@ -1316,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -1327,7 +1463,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1336,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F5" s="2">
         <v>600</v>
@@ -1348,16 +1484,16 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1366,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F6" s="2">
         <v>950</v>
@@ -1378,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1389,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1398,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
@@ -1410,10 +1546,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1567,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1576,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
@@ -1588,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -1606,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2">
         <v>130</v>
@@ -1618,15 +1754,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
@@ -1638,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F16" s="2">
         <v>700</v>
@@ -1650,15 +1786,15 @@
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -1670,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F17" s="2">
         <v>140</v>
@@ -1682,15 +1818,15 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -1702,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="b">
@@ -1716,7 +1852,7 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -1728,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="b">
@@ -1742,7 +1878,7 @@
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
@@ -1754,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="b">
@@ -1768,7 +1904,7 @@
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
@@ -1780,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="b">
@@ -1794,7 +1930,7 @@
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
@@ -1806,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="b">
@@ -1820,7 +1956,7 @@
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>44</v>
@@ -1832,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="b">
@@ -1846,10 +1982,10 @@
     </row>
     <row r="24" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1858,7 +1994,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F24" s="2">
         <v>300</v>
@@ -1870,15 +2006,15 @@
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>45</v>
@@ -1890,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="b">
@@ -1904,10 +2040,10 @@
     </row>
     <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1916,7 +2052,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F26" s="2">
         <v>200</v>
@@ -1928,18 +2064,18 @@
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1948,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F27" s="2">
         <v>350</v>
@@ -1960,15 +2096,15 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>46</v>
@@ -1980,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2">
         <v>250</v>
@@ -1992,18 +2128,18 @@
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2012,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F29" s="2">
         <v>700</v>
@@ -2024,15 +2160,15 @@
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>47</v>
@@ -2044,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F30" s="2">
         <v>150</v>
@@ -2056,15 +2192,15 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>48</v>
@@ -2076,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2">
         <v>200</v>
@@ -2088,15 +2224,15 @@
         <v>25</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
@@ -2108,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F32" s="2">
         <v>160</v>
@@ -2120,15 +2256,15 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -2140,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F33" s="2">
         <v>350</v>
@@ -2152,15 +2288,15 @@
         <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>51</v>
@@ -2172,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F34" s="2">
         <v>160</v>
@@ -2184,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>52</v>
@@ -2202,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F35" s="2">
         <v>250</v>
@@ -2214,15 +2350,15 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>53</v>
@@ -2234,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F36" s="2">
         <v>200</v>
@@ -2246,18 +2382,18 @@
         <v>10</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -2266,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F37" s="2">
         <v>300</v>
@@ -2278,13 +2414,13 @@
         <v>20</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>54</v>
@@ -2296,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F38" s="2">
         <v>180</v>
@@ -2308,13 +2444,13 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>55</v>
@@ -2326,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F39" s="2">
         <v>180</v>
@@ -2338,13 +2474,13 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>56</v>
@@ -2356,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F40" s="2">
         <v>180</v>
@@ -2368,13 +2504,13 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>57</v>
@@ -2386,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="b">
@@ -2400,7 +2536,7 @@
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>58</v>
@@ -2412,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="b">
@@ -2424,35 +2560,41 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="F43" s="2">
+        <v>50</v>
+      </c>
       <c r="G43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>60</v>
@@ -2464,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F44" s="2">
         <v>110</v>
@@ -2476,15 +2618,15 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>61</v>
@@ -2496,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F45" s="2">
         <v>160</v>
@@ -2510,9 +2652,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>62</v>
@@ -2524,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="b">
@@ -2536,70 +2678,70 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="F47" s="2">
+        <v>200</v>
+      </c>
       <c r="G47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="2">
-        <v>200</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2608,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="b">
@@ -2622,36 +2764,42 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F50" s="2">
+        <v>250</v>
+      </c>
       <c r="G50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2660,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="b">
@@ -2672,70 +2820,68 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="F52" s="2">
+        <v>250</v>
+      </c>
       <c r="G52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="2">
-        <v>250</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2744,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="b">
@@ -2756,42 +2902,38 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="2">
-        <v>250</v>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2800,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="b">
@@ -2812,38 +2954,44 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="F57" s="2">
+        <v>150</v>
+      </c>
       <c r="G57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2852,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="b">
@@ -2864,12 +3012,12 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2878,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="b">
@@ -2895,7 +3043,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2904,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="b">
@@ -2916,226 +3064,254 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="F61" s="2">
+        <v>250</v>
+      </c>
       <c r="G61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="2">
-        <v>150</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" s="2">
+        <v>50</v>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="2">
+        <v>250</v>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" s="2">
+        <v>300</v>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
         <v>20</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="I66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="E67" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" s="2">
+        <v>300</v>
+      </c>
       <c r="G67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="F68" s="2">
+        <v>9500</v>
+      </c>
       <c r="G68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="I68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -3144,10 +3320,10 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="F69" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G69" s="2" t="b">
         <v>1</v>
@@ -3156,244 +3332,194 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="F70" s="2">
+        <v>300</v>
+      </c>
       <c r="G70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="2">
+        <v>200</v>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>20</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="288" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>20</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J88">
+  <conditionalFormatting sqref="A2:J80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=1</formula>
     </cfRule>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9496D-C2C3-40A4-9F31-DEEB708950A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B131C6D-3E8E-4B94-892B-0CA0C6C81BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t>itemCode</t>
   </si>
@@ -946,6 +946,18 @@
 Dimensions ‏ : ‎ 20 x 14 x 4 cm
 Country of Origin ‏ : ‎ India
 [Price includes Shipping]</t>
+  </si>
+  <si>
+    <t>BK058</t>
+  </si>
+  <si>
+    <t>BK067</t>
+  </si>
+  <si>
+    <t>BK070</t>
+  </si>
+  <si>
+    <t>BK071</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1324,8 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1500,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1710,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1728,7 +1740,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1980,7 +1992,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -2324,7 +2336,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -2478,7 +2490,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
@@ -2560,7 +2572,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -2654,7 +2666,7 @@
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>62</v>
@@ -2678,9 +2690,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>63</v>
@@ -2712,7 +2724,7 @@
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>64</v>
@@ -2738,7 +2750,7 @@
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>66</v>
@@ -2764,7 +2776,7 @@
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>67</v>
@@ -2794,9 +2806,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>205</v>
@@ -2820,9 +2832,9 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>206</v>
@@ -2852,7 +2864,7 @@
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>69</v>
@@ -2878,7 +2890,7 @@
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>70</v>
@@ -2904,7 +2916,7 @@
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>71</v>
@@ -2930,7 +2942,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>72</v>
@@ -2956,7 +2968,7 @@
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>73</v>
@@ -2988,7 +3000,7 @@
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>74</v>
@@ -3014,7 +3026,7 @@
     </row>
     <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>75</v>
@@ -3040,7 +3052,7 @@
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>76</v>
@@ -3064,9 +3076,9 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>78</v>
@@ -3096,7 +3108,7 @@
     </row>
     <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -3121,7 +3133,9 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>227</v>
       </c>
@@ -3152,7 +3166,7 @@
     </row>
     <row r="64" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -3184,7 +3198,7 @@
     </row>
     <row r="65" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>68</v>
@@ -3216,7 +3230,7 @@
     </row>
     <row r="66" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
@@ -3247,7 +3261,9 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>240</v>
       </c>
@@ -3277,7 +3293,9 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>245</v>
       </c>
@@ -3308,7 +3326,7 @@
     </row>
     <row r="69" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>246</v>
@@ -3340,7 +3358,7 @@
     </row>
     <row r="70" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>249</v>
@@ -3371,7 +3389,9 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>250</v>
       </c>
@@ -3402,7 +3422,7 @@
     </row>
     <row r="72" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>255</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B131C6D-3E8E-4B94-892B-0CA0C6C81BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B78984-22E0-4E32-B8A0-EA8229D2BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="273">
   <si>
     <t>itemCode</t>
   </si>
@@ -573,10 +573,6 @@
   </si>
   <si>
     <t>TMW002.jpg, TMW003.jpg</t>
-  </si>
-  <si>
-    <t>Indian paperback edition of the 2002 bounty edition. Paper quality is very good.
-[Price + Shipping]</t>
   </si>
   <si>
     <t>Coffee Can Investing by Saurabh Mukherjee [Hardcover]</t>
@@ -958,6 +954,13 @@
   </si>
   <si>
     <t>BK071</t>
+  </si>
+  <si>
+    <t>[Shipping charges extra]</t>
+  </si>
+  <si>
+    <t>Indian paperback edition of the 2002 bounty edition. Paper quality is very good.
+[Shipping charges extra]</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1327,8 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1484,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="2">
         <v>600</v>
@@ -1496,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1505,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1514,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="2">
         <v>950</v>
@@ -1526,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -1537,16 +1540,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
@@ -1558,10 +1561,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1715,16 +1718,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
@@ -1736,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1754,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="2">
         <v>130</v>
@@ -1766,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1786,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="2">
         <v>700</v>
@@ -1798,10 +1801,10 @@
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1818,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="2">
         <v>140</v>
@@ -1830,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1997,7 +2000,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2128,7 +2131,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="2">
         <v>250</v>
@@ -2140,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -2151,16 +2154,16 @@
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F29" s="2">
         <v>700</v>
@@ -2172,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2192,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2">
         <v>150</v>
@@ -2204,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2256,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F32" s="2">
         <v>160</v>
@@ -2268,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -2320,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="2">
         <v>160</v>
@@ -2332,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -2350,7 +2353,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F35" s="2">
         <v>250</v>
@@ -2405,7 +2408,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -2414,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="2">
         <v>300</v>
@@ -2426,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -2444,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="2">
         <v>180</v>
@@ -2456,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J38" s="2"/>
     </row>
@@ -2474,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" s="2">
         <v>180</v>
@@ -2486,7 +2489,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -2504,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="2">
         <v>180</v>
@@ -2516,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -2586,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F43" s="2">
         <v>50</v>
@@ -2598,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2618,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="F44" s="2">
         <v>110</v>
@@ -2650,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F45" s="2">
         <v>160</v>
@@ -2704,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="F47" s="2">
         <v>200</v>
@@ -2800,10 +2803,10 @@
         <v>10</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2811,7 +2814,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2820,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="b">
@@ -2837,16 +2840,16 @@
         <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F52" s="2">
         <v>250</v>
@@ -2858,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" s="2"/>
     </row>
@@ -2995,7 +2998,7 @@
         <v>161</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3026,7 +3029,7 @@
     </row>
     <row r="59" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>75</v>
@@ -3137,7 +3140,7 @@
         <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3146,7 +3149,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" s="2">
         <v>50</v>
@@ -3158,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -3178,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="2">
         <v>50</v>
@@ -3190,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -3210,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="2">
         <v>250</v>
@@ -3222,10 +3225,10 @@
         <v>30</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -3242,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2">
         <v>300</v>
@@ -3254,10 +3257,10 @@
         <v>20</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -3265,7 +3268,7 @@
         <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -3274,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="2">
         <v>300</v>
@@ -3286,18 +3289,18 @@
         <v>10</v>
       </c>
       <c r="I67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -3306,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" s="2">
         <v>9500</v>
@@ -3318,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
@@ -3329,7 +3332,7 @@
         <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -3338,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="2">
         <v>300</v>
@@ -3350,18 +3353,18 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -3370,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="2">
         <v>300</v>
@@ -3382,18 +3385,18 @@
         <v>10</v>
       </c>
       <c r="I70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -3402,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="2">
         <v>200</v>
@@ -3414,18 +3417,18 @@
         <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -3434,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="2">
         <v>1000</v>
@@ -3446,10 +3449,10 @@
         <v>20</v>
       </c>
       <c r="I72" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B78984-22E0-4E32-B8A0-EA8229D2BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EFA4E3-2B2F-4419-A96C-645CB13A27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1327,8 +1327,8 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1751,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -2701,7 +2701,7 @@
         <v>63</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B8AC4-4AF9-4F67-8F71-00CB90A47D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F68A1-90DC-4580-ADB9-D5C4D4F3EA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="312">
   <si>
     <t>itemCode</t>
   </si>
@@ -117,18 +117,6 @@
     <t>Altered Carbon by Richard Morgan [Paperback]</t>
   </si>
   <si>
-    <t>Sons of Fortune by Jeffrey Archer [Hardcover]</t>
-  </si>
-  <si>
-    <t>The Eleventh Commandment by Jeffrey Archer [Hardcover]</t>
-  </si>
-  <si>
-    <t>Honour Among Thieves by Jeffrey Archer [Hardcover]</t>
-  </si>
-  <si>
-    <t>The Client by John Grisham [Hardcover]</t>
-  </si>
-  <si>
     <t>The Bretheren by John Grisham [Paperback]</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
   </si>
   <si>
     <t>The Broker by John Grisham [Paperback]</t>
-  </si>
-  <si>
-    <t>Zero Coupon By Paul Erdman [Hardcover]</t>
   </si>
   <si>
     <t>Saucer by Stephen Coonts [Paperback]</t>
@@ -472,18 +457,9 @@
     <t>TDM001.jpg</t>
   </si>
   <si>
-    <t>TDM002.jpg</t>
-  </si>
-  <si>
-    <t>LANCE002.jpg</t>
-  </si>
-  <si>
     <t>LANCE001.jpg</t>
   </si>
   <si>
-    <t>Lance: The Making of the World's Greatest Champion by John Wilcockson</t>
-  </si>
-  <si>
     <t>SH001.jpg</t>
   </si>
   <si>
@@ -529,9 +505,6 @@
     <t>RD001.jpg</t>
   </si>
   <si>
-    <t>RD002.jpg</t>
-  </si>
-  <si>
     <t>TKaM001.jpg</t>
   </si>
   <si>
@@ -602,9 +575,6 @@
   </si>
   <si>
     <t>DESAI001.jpg</t>
-  </si>
-  <si>
-    <t>DESAI002.jpg</t>
   </si>
   <si>
     <t>BK069</t>
@@ -750,16 +720,6 @@
 ISBN-10 ‏ : ‎ 0670999229
 ISBN-13 ‏ : ‎ 978-0670999224
 Item Weight ‏ : ‎ 1 kg 360 g
-[Prices do not include shipping]</t>
-  </si>
-  <si>
-    <t>ASIN ‏ : ‎ 059305427X
-Publisher ‏ : ‎ Bantam Press 
-Language ‏ : ‎ English
-Hardcover ‏ : ‎ 528 pages
-ISBN-10 ‏ : ‎ 7780040178
-ISBN-13 ‏ : ‎ 978-7780040174
-Item Weight ‏ : ‎ 860 g
 [Prices do not include shipping]</t>
   </si>
   <si>
@@ -850,18 +810,6 @@
 [Prices do not include shipping]</t>
   </si>
   <si>
-    <t>Winner of Man Booker prize 20026.
-Publisher ‏ : ‎ Penguin
-Language ‏ : ‎ English
-Hardcover ‏ : ‎ 336 pages
-ISBN-10 ‏ : ‎ 0349403716
-ISBN-13 ‏ : ‎ 978-0143423904
-Item Weight ‏ : ‎ 270 g
-Dimensions ‏ : ‎ 20 x 14 x 4 cm
-Country of Origin ‏ : ‎ India
-[Prices do not include shipping]</t>
-  </si>
-  <si>
     <t>Practical investment guide in hardcover, good condition. Explains simple long-term wealth creation strategies for Indian investors. Content pages clean and unmarked. Excellent for DIY investors. 
 [Prices do not include shipping]</t>
   </si>
@@ -895,17 +843,6 @@
     <t>(1999 Revised Edition)
 ISBN-13: 9780688137885
 ISBN-10: 0688137881 [Paperback]
-[Prices do not include shipping]</t>
-  </si>
-  <si>
-    <t>[Hardcover]
-Publisher ‏ : ‎ Da Capo Press
-Language ‏ : ‎ English
-Hardcover ‏ : ‎ 416 pages
-ISBN-10 ‏ : ‎ 0306815877
-ISBN-13 ‏ : ‎ 978-0306815874
-Item Weight ‏ : ‎ 730 g
-Dimensions ‏ : ‎ 15.88 x 3.18 x 22.86 cm
 [Prices do not include shipping]</t>
   </si>
   <si>
@@ -1012,6 +949,190 @@
 Dimensions ‏ : ‎ 20 x 14 x 4 cm
 Country of Origin ‏ : ‎ India
 [Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Winner of Man Booker prize 20026.
+Publisher ‏ : ‎ Penguin
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 336 pages
+ISBN-10 ‏ : ‎ 0349403716
+ISBN-13 ‏ : ‎ 978-0143423904
+Item Weight ‏ : ‎ 370 g
+Dimensions ‏ : ‎ 20 x 14 x 4 cm
+Country of Origin ‏ : ‎ India
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>ALT001.jpg</t>
+  </si>
+  <si>
+    <t>Jeffrey Archer Combo [3 HARDCOVER FIRST EDITIONS]
+Honour Among Thieves (1993)
+The Eleventh Commandment (1998)
+Sons of Fortune (2003)</t>
+  </si>
+  <si>
+    <t>BK074</t>
+  </si>
+  <si>
+    <t>JEFF_COMBO.jpg</t>
+  </si>
+  <si>
+    <t>HONOR001.jpg</t>
+  </si>
+  <si>
+    <t>HONOR002.jpg, HONOR003.jpg, HONOR004.jpg</t>
+  </si>
+  <si>
+    <t>ELEV001.jpg</t>
+  </si>
+  <si>
+    <t>ELEV002.jpg, ELEV003.jpg</t>
+  </si>
+  <si>
+    <t>FORT001.jpg</t>
+  </si>
+  <si>
+    <t>HONOR001.jpg, HONOR002.jpg, HONOR003.jpg, HONOR004.jpg,
+ELEV001.jpg,
+ELEV002.jpg, ELEV003.jpg,
+FORT001.jpg,
+FORT002.jpg, FORT003.jpg</t>
+  </si>
+  <si>
+    <t>CLI001.jpg</t>
+  </si>
+  <si>
+    <t>CLI002.jpg, CLI003.jpg, CLI004.jpg, CLI005.jpg</t>
+  </si>
+  <si>
+    <t>FORT002.jpg, FORT003.jpg, FORT004.jpg, FORT005.jpg</t>
+  </si>
+  <si>
+    <t>BRETH001.jpg</t>
+  </si>
+  <si>
+    <t>BRETH002.jpg, BRETH003.jpg</t>
+  </si>
+  <si>
+    <t>LOST002.jpg, LOST003.jpg</t>
+  </si>
+  <si>
+    <t>Publisher ‏ : ‎ Bantam Press 
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 528 pages
+ISBN-10 ‏ : ‎ 7780040178
+ISBN-13 ‏ : ‎ 978-7780040174
+Item Weight ‏ : ‎ 890 g
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>ZERO001.jpg</t>
+  </si>
+  <si>
+    <t>ZERO002.jpg, ZERO003.jpg, ZERO004.jpg</t>
+  </si>
+  <si>
+    <t>RD002.jpg, RD003.jpg, RD004.jpg, RD005.jpg, RD006.jpg, RD007.jpg, RD008.jpg</t>
+  </si>
+  <si>
+    <t>SAUC001.jpg</t>
+  </si>
+  <si>
+    <t>SAUC002.jpg, SAUC003.jpg</t>
+  </si>
+  <si>
+    <t>DESAI002.jpg, DESAI003.jpg</t>
+  </si>
+  <si>
+    <t>Lance: The Making of the World's Greatest Champion by John Wilcockson [Hardcover]</t>
+  </si>
+  <si>
+    <t>LANCE002.jpg, LANCE003.jpg, LANCE004.jpg, LANCE005.jpg</t>
+  </si>
+  <si>
+    <t>TDM002.jpg, TDM003.jpg</t>
+  </si>
+  <si>
+    <t>[Hardcover]
+Publisher ‏ : ‎ Da Capo Press
+Language ‏ : ‎ English
+Hardcover ‏ : ‎ 416 pages
+ISBN-10 ‏ : ‎ 0306815877
+ISBN-13 ‏ : ‎ 978-0306815874
+Item Weight ‏ : ‎ 780 g
+Dimensions ‏ : ‎ 15.88 x 3.18 x 22.86 cm
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>ALT002.jpg, ALT003.jpg,
+ALT004.png</t>
+  </si>
+  <si>
+    <t>Groundbreaking cyberpunk noir thriller in paperback. Philip K. Dick Award-winning first book in Takeshi Kovacs series featuring mind-transferring technology, hard-boiled detective story, and dystopian future. Cover shows moderate reading wear with creases and edge scuffing, pages have minor yellowing but remain clean and complete without tears. Netflix adapted this cult classic that revolutionized sci-fi genre. Perfect for fans of William Gibson, Neal Stephenson, and dark futuristic fiction. Mind-bending plot with intense action.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Rare collector's set of three Jeffrey Archer first edition hardcovers spanning a decade. Includes political thriller 'Honour Among Thieves' (1993), CIA espionage novel 'The Eleventh Commandment' (1998), and family saga 'Sons of Fortune' (2003). All dust jackets present with age-appropriate wear, spines tight, pages clean with minimal yellowing. Minor shelf wear and corner bumping consistent with age. Exceptional value for Archer completists and collectors of modern thriller first editions. Combined 1500+ pages of masterful storytelling.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Epic family drama hardcover exploring nature versus nurture. Archer's compelling 2003 novel follows twin brothers separated at birth who rise to prominence on opposite sides of political spectrum. Dust jacket shows light shelf wear with minor edge tears, binding firm, pages pristine without marking. 502 pages of masterful plotting with Archer's signature twists. Perfect standalone addition for political fiction enthusiasts and Archer fans who appreciate complex character-driven narratives.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gripping CIA thriller hardcover from 1998. Connor Fitzgerald, CIA's most deadly assassin, faces his most dangerous mission when betrayed by his own agency. Dust jacket present with moderate wear and small tears, spine straight, interior pages clean and unmarked. Fast-paced international espionage with moral dilemmas and unexpected plot reversals. Excellent condition for 25+ year old thriller. Ideal for collector fans of political intrigue and spy fiction.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Political thriller hardcover blending fiction with historical events. Saddam Hussein's plot to steal Declaration of Independence creates international crisis requiring unlikely heroes. Dust jacket shows little shelf wear, binding tight, pages clean without much yellowing. Published 1993, this pre-9/11 thriller offers fascinating period perspective. Excellent condition for 30+ year old thriller. Archer's meticulous research and breakneck pacing make this vintage thriller highly entertaining.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Honour Among Thieves by Jeffrey Archer [Hardcover FIRST EDITION 1993]</t>
+  </si>
+  <si>
+    <t>The Eleventh Commandment by Jeffrey Archer [Hardcover FIRST EDITION 1998]</t>
+  </si>
+  <si>
+    <t>Sons of Fortune by Jeffrey Archer [Hardcover FIRST EDITION 2003]</t>
+  </si>
+  <si>
+    <t>Classic legal thriller hardcover featuring 11-year-old witness to mob lawyer's suicide. Young Mark Sway knows deadly secret that puts him between FBI and mafia, with only lawyer Reggie Love protecting him. Dust jacket shows moderate wear with tears and edge damage, binding solid, pages clean with minimal yellowing. Grisham's breakout bestseller that became hit film starring Susan Sarandon and Tommy Lee Jones. Suspenseful courtroom drama that defined 1990s legal thriller genre. 
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Unique Grisham thriller set inside federal prison in paperback. Three disgraced judges run sophisticated blackmail scheme while CIA desperately needs their help. Cover worn with significant creases and edge damage from reading, spine creased but intact, pages yellowed with age but complete and legible throughout. Clever premise combining legal expertise with political intrigue. Different from typical Grisham courtroom dramas, offering fresh perspective on corruption and redemption.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Socially conscious legal thriller in paperback. High-powered corporate attorney's life changes after homeless man takes hostages, forcing him to confront inequality and choose between wealth and justice. Cover shows considerable reading wear with creases and scuffing, pages yellowed but text remains clear and complete. Grisham tackles homelessness and corporate greed with trademark suspense. Thought-provoking story that balances entertainment with social commentary. Great for Grisham fans seeking substance with their thrills. 
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+International espionage thriller set in Italy in paperback. Former Washington power broker Joel Backman, pardoned after six years in prison, must survive while CIA uses him as bait for foreign intelligence services. Cover worn from reading with creases and edge wear, spine intact with visible creasing, pages yellowed but complete without tears. Grisham ventures beyond courtrooms into spy territory with Italian setting and language learning subplot. Fast-paced globe-trotting adventure with trademark Grisham plotting.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Two-in-one omnibus paperback featuring contrasting Baldacci novels. 'The Christmas Train' offers heartwarming holiday journey across America, while 'Split Second' delivers intense Secret Service thriller. Cover shows moderate wear with creases, spine creased from reading, pages yellowed but both complete novels remain fully readable. Exceptional value getting two full Baldacci books in single volume - cozy holiday story plus edge-of-seat suspense. Perfect for Baldacci completists and readers who enjoy variety.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Financial thriller hardcover from master of money-based suspense. International banking intrigue involving zero-coupon bonds, Swiss accounts, and high-stakes market manipulation. Dust jacket shows wear with tears and edge damage, may be partially missing, binding firm, pages clean without major marking. Erdman's Wall Street expertise creates authentic financial thriller. Published in era before digital trading, offers fascinating historical perspective on international finance and 1980s banking world.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>Sci-fi adventure thriller in paperback. Engineering student discovers ancient flying saucer in Sahara, triggering international race between governments, corporations, and adventurers to control alien technology. Cover worn with significant creasing and edge damage, spine intact but creased, pages yellowed considerably but complete and legible. Coonts applies his aviation expertise to imaginative first contact scenario. Fun blend of techno-thriller and science fiction that doesn't take itself too seriously. Perfect for fans of Clive Cussler and Michael Crichton.
+[Prices do not include shipping]</t>
+  </si>
+  <si>
+    <t>The Client by John Grisham [FIRST EDITION Hardcover 1993]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero Coupon By Paul Erdman [FIRST EDITION October 1993; Hardcover] </t>
   </si>
 </sst>
 </file>
@@ -1076,12 +1197,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1372,11 +1496,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K79"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1515,7 @@
     <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1401,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1413,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1428,12 +1553,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1442,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2">
         <v>300</v>
@@ -1463,12 +1588,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1477,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2">
         <v>400</v>
@@ -1498,7 +1623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F4" s="2">
         <v>650</v>
@@ -1527,18 +1652,18 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1547,13 +1672,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="F5" s="2">
         <v>500</v>
       </c>
       <c r="G5" s="2">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
@@ -1562,16 +1687,18 @@
         <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1580,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F6" s="2">
         <v>950</v>
@@ -1595,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1615,13 +1742,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F7" s="2">
         <v>250</v>
       </c>
       <c r="G7" s="2">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
@@ -1630,13 +1757,13 @@
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1644,168 +1771,214 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="F8" s="2">
-        <v>500</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.67</v>
+      </c>
       <c r="H8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="H9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="F10" s="2">
+        <v>600</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.95</v>
+      </c>
       <c r="H10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="F11" s="2">
+        <v>600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.64</v>
+      </c>
       <c r="H11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="F12" s="2">
+        <v>600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.72</v>
+      </c>
       <c r="H12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="F13" s="2">
+        <v>700</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.79</v>
+      </c>
       <c r="H13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1814,163 +1987,169 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="F14" s="2">
         <v>150</v>
       </c>
       <c r="G14" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="2">
+        <v>150</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.5</v>
       </c>
-      <c r="H14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="H15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
         <v>-1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="2">
         <v>130</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="2">
         <v>500</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="H16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G17" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="J17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="2">
         <v>90</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>0.21</v>
       </c>
-      <c r="H17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>0.3</v>
-      </c>
       <c r="H18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1979,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1994,12 +2173,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2008,11 +2187,11 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="2" t="b">
         <v>0</v>
@@ -2023,12 +2202,12 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2037,10 +2216,12 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>0.51</v>
+      </c>
       <c r="H21" s="2" t="b">
         <v>0</v>
       </c>
@@ -2050,182 +2231,190 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" s="2">
+        <v>800</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="2">
+        <v>600</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="2">
+        <v>250</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="H23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F24" s="2">
-        <v>250</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="H24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>20</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="B27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="2">
         <v>200</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>0.52</v>
-      </c>
-      <c r="H26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>20</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="2">
-        <v>300</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.73</v>
       </c>
       <c r="H27" s="2" t="b">
         <v>1</v>
@@ -2234,18 +2423,18 @@
         <v>20</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2254,48 +2443,48 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="F28" s="2">
+        <v>300</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="2">
         <v>200</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>0.36</v>
-      </c>
-      <c r="H28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="2">
-        <v>600</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.91</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -2304,18 +2493,18 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2324,13 +2513,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F30" s="2">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="G30" s="2">
-        <v>0.31</v>
+        <v>0.91</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -2339,325 +2528,327 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="2">
+        <v>150</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="2">
+        <v>200</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="2">
+        <v>160</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="2">
+        <v>300</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="2">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="288" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="2">
+        <v>180</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="2">
+        <v>200</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="2">
+        <v>250</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F31" s="2">
-        <v>200</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>25</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="2">
-        <v>160</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="H32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F33" s="2">
-        <v>300</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="H33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" s="2">
-        <v>120</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="H34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="288" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="2">
-        <v>180</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="H35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="2">
-        <v>200</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="H36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F37" s="2">
-        <v>250</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="H37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>20</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="2">
-        <v>180</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="H38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="F39" s="2">
         <v>180</v>
       </c>
       <c r="G39" s="2">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="H39" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -2666,7 +2857,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F40" s="2">
         <v>180</v>
@@ -2675,49 +2866,55 @@
         <v>0.16</v>
       </c>
       <c r="H40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <v>20</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="F41" s="2">
+        <v>180</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.16</v>
+      </c>
       <c r="H41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2726,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2739,109 +2936,107 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="2">
+        <v>229</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="2">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.27</v>
       </c>
-      <c r="H43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2">
         <v>-1</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="2">
         <v>110</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" s="2">
-        <v>140</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>10</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2850,38 +3045,38 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F46" s="2">
+        <v>140</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="2">
-        <v>200</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="b">
         <v>0</v>
@@ -2889,30 +3084,28 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="F48" s="2">
+        <v>200</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="b">
         <v>0</v>
@@ -2920,15 +3113,19 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2937,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2952,130 +3149,130 @@
     </row>
     <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2">
+      <c r="E50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
         <v>250</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <v>0.43</v>
       </c>
-      <c r="H50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="H51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" s="2">
-        <v>180</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="G53" s="2">
         <v>0.21</v>
       </c>
-      <c r="H52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="H53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
         <v>10</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3084,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3099,10 +3296,10 @@
     </row>
     <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3111,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3126,10 +3323,10 @@
     </row>
     <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3138,12 +3335,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>0.51</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2" t="b">
         <v>0</v>
       </c>
@@ -3155,72 +3350,74 @@
     </row>
     <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F57" s="2">
+        <v>229</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="2">
         <v>150</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>0.4</v>
       </c>
-      <c r="H57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="H58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
         <v>20</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3229,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3242,12 +3439,12 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3256,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3269,107 +3466,99 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F61" s="2">
+        <v>229</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="2">
         <v>200</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="2">
         <v>0.45</v>
       </c>
-      <c r="H61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="H62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
         <v>10</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F63" s="2">
-        <v>50</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0.26500000000000001</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -3378,68 +3567,68 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2">
         <v>50</v>
       </c>
       <c r="G64" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F65" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" s="2">
         <v>0.27</v>
       </c>
-      <c r="H64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F65" s="2">
-        <v>250</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0.3</v>
-      </c>
       <c r="H65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -3448,153 +3637,153 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F66" s="2">
         <v>250</v>
       </c>
       <c r="G66" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>30</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" s="2">
+        <v>250</v>
+      </c>
+      <c r="G67" s="2">
         <v>0.43</v>
       </c>
-      <c r="H66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" s="2">
+      <c r="H67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
         <v>20</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="2">
+        <v>200</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="K68" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="162.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>10</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="2">
         <v>9500</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G69" s="2">
         <v>0.82</v>
       </c>
-      <c r="H68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="H69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" s="2">
         <v>150</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G70" s="2">
         <v>1.35</v>
-      </c>
-      <c r="H69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2">
-        <v>10</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="216" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F70" s="2">
-        <v>220</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0.3</v>
       </c>
       <c r="H70" s="2" t="b">
         <v>1</v>
@@ -3603,68 +3792,68 @@
         <v>10</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="2">
+        <v>220</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>10</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="B72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="2">
         <v>200</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>0.39</v>
-      </c>
-      <c r="H71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2">
-        <v>20</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F72" s="2">
-        <v>900</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0.51</v>
       </c>
       <c r="H72" s="2" t="b">
         <v>1</v>
@@ -3673,60 +3862,68 @@
         <v>20</v>
       </c>
       <c r="J72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="316.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" s="2">
+        <v>900</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="F74" s="2">
         <v>75</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>0.35</v>
-      </c>
-      <c r="H73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="2">
-        <v>150</v>
-      </c>
-      <c r="G74" s="2">
-        <v>0.41</v>
       </c>
       <c r="H74" s="2" t="b">
         <v>0</v>
@@ -3737,16 +3934,34 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+    <row r="75" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="2">
+        <v>150</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="H75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
@@ -3802,10 +4017,29 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C80" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K80">
+  <conditionalFormatting sqref="A2:K81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=1</formula>
     </cfRule>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PYs\Indica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F68A1-90DC-4580-ADB9-D5C4D4F3EA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC0FC73-EEAA-45B4-8CAC-D774522968A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="227" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,13 +993,6 @@
     <t>FORT001.jpg</t>
   </si>
   <si>
-    <t>HONOR001.jpg, HONOR002.jpg, HONOR003.jpg, HONOR004.jpg,
-ELEV001.jpg,
-ELEV002.jpg, ELEV003.jpg,
-FORT001.jpg,
-FORT002.jpg, FORT003.jpg</t>
-  </si>
-  <si>
     <t>CLI001.jpg</t>
   </si>
   <si>
@@ -1133,6 +1126,13 @@
   </si>
   <si>
     <t xml:space="preserve">Zero Coupon By Paul Erdman [FIRST EDITION October 1993; Hardcover] </t>
+  </si>
+  <si>
+    <t>HONOR001.jpg, HONOR002.jpg, HONOR003.jpg, HONOR004.jpg,
+ELEV001.jpg,
+ELEV002.jpg, ELEV003.jpg,
+FORT001.jpg,
+FORT002.jpg, FORT003.jpg, FORT004.jpg, FORT005.jpg</t>
   </si>
 </sst>
 </file>
@@ -1496,12 +1496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="2">
         <v>500</v>
@@ -1690,10 +1689,10 @@
         <v>176</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1760,10 +1759,10 @@
         <v>181</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F8" s="2">
         <v>600</v>
@@ -1795,10 +1794,10 @@
         <v>267</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F9" s="2">
         <v>1450</v>
@@ -1830,15 +1829,15 @@
         <v>270</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1847,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2">
         <v>600</v>
@@ -1865,15 +1864,15 @@
         <v>275</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1882,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="2">
         <v>600</v>
@@ -1903,12 +1902,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1917,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" s="2">
         <v>600</v>
@@ -1938,12 +1937,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1952,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" s="2">
         <v>700</v>
@@ -1967,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14" s="2">
         <v>150</v>
@@ -2002,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -2041,7 +2040,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -2106,10 +2105,10 @@
         <v>157</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2187,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2216,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2231,12 +2230,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -2245,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F22" s="2">
         <v>800</v>
@@ -2260,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F23" s="2">
         <v>600</v>
@@ -2295,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2330,7 +2329,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2426,15 +2425,15 @@
         <v>141</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2443,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" s="2">
         <v>300</v>
@@ -2461,10 +2460,10 @@
         <v>142</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -2707,7 +2706,7 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="288" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="288" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2810,7 +2809,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -2843,7 +2842,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -2876,7 +2875,7 @@
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -3087,7 +3086,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -3174,7 +3173,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>106</v>
       </c>
@@ -3234,7 +3233,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>108</v>
       </c>
@@ -3377,7 +3376,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -3493,7 +3492,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>116</v>
       </c>
@@ -3553,7 +3552,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>214</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="162.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>182</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>215</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="316.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>219</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>221</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>269</v>
       </c>
@@ -4031,13 +4030,7 @@
       <c r="K80" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C80" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:K81">
     <cfRule type="expression" dxfId="0" priority="1">
